--- a/ManageListing.xlsx
+++ b/ManageListing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mogli\Desktop\marsframework-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC12BFFB-F7B7-4822-9319-0F569C29C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E95D3B-5431-49A4-8B51-79048B17ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1BADB602-1929-43EB-BBBE-59D6693AF35D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -130,29 +130,6 @@
     <t>User Should be able to Navigate to the Home page.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click on "Sign in" in home page</t>
-    </r>
-  </si>
-  <si>
     <t>User should be able to see the login page</t>
   </si>
   <si>
@@ -232,9 +209,6 @@
   </si>
   <si>
     <t>step 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Login with Valid Credentials Username: vidhyav9@gmail.com Password:Ithika2015</t>
   </si>
   <si>
     <t>Click on "Manage Listings" in Profile page</t>
@@ -474,6 +448,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -484,18 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CAB2BA-9888-43EC-B103-8999BB4F8E86}">
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,11 +931,11 @@
     <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10" style="15" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="6" max="6" width="13.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,7 +946,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>26</v>
@@ -994,800 +968,780 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>58</v>
+      <c r="C2" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="17" t="s">
-        <v>59</v>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
-        <v>60</v>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="E28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C38" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="E65" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" s="9"/>
@@ -1816,12 +1770,12 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="9"/>
-    </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" s="9"/>
     </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="9"/>
+    </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" s="9"/>
     </row>
@@ -2497,96 +2451,96 @@
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" s="9"/>
-    </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" s="9"/>
     </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" s="9"/>
+    </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" s="9"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" s="9"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="9"/>
-    </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" s="9"/>
     </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" s="9"/>
+    </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" s="9"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" s="9"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" s="9"/>
-    </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" s="9"/>
     </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" s="9"/>
+    </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" s="9"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" s="9"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="9"/>
-    </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321" s="9"/>
     </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="9"/>
+    </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323" s="9"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="9"/>
-    </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326" s="9"/>
     </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="9"/>
+    </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328" s="9"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D330" s="9"/>
-    </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331" s="9"/>
     </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" s="9"/>
+    </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333" s="9"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D335" s="9"/>
-    </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336" s="9"/>
     </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="9"/>
+    </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338" s="9"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" s="9"/>
-    </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341" s="9"/>
     </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" s="9"/>
+    </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343" s="9"/>
     </row>
@@ -2620,12 +2574,12 @@
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" s="9"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="9"/>
-    </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" s="9"/>
     </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="9"/>
+    </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D357" s="9"/>
     </row>
@@ -2641,12 +2595,12 @@
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" s="9"/>
-    </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" s="9"/>
     </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" s="9"/>
+    </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" s="9"/>
     </row>
@@ -2662,12 +2616,12 @@
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" s="9"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" s="9"/>
-    </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" s="9"/>
     </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" s="9"/>
+    </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" s="9"/>
     </row>
@@ -2680,12 +2634,12 @@
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D376" s="9"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" s="9"/>
-    </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D378" s="9"/>
     </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" s="9"/>
+    </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" s="9"/>
     </row>
@@ -2698,24 +2652,24 @@
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D383" s="9"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" s="9"/>
-    </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D385" s="9"/>
     </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" s="9"/>
+    </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D387" s="9"/>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D388" s="9"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" s="9"/>
-    </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D390" s="9"/>
     </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" s="9"/>
+    </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D392" s="9"/>
     </row>
@@ -2740,12 +2694,12 @@
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D399" s="9"/>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" s="9"/>
-    </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" s="9"/>
     </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="9"/>
+    </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D403" s="9"/>
     </row>
@@ -2761,12 +2715,12 @@
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D407" s="9"/>
     </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="9"/>
-    </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D409" s="9"/>
     </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410" s="9"/>
+    </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D411" s="9"/>
     </row>
@@ -2779,33 +2733,33 @@
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D414" s="9"/>
     </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" s="9"/>
-    </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D416" s="9"/>
     </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D417" s="9"/>
+    </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D418" s="9"/>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D419" s="9"/>
     </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" s="9"/>
-    </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D421" s="9"/>
     </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D422" s="9"/>
+    </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D423" s="9"/>
     </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" s="9"/>
-    </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D425" s="9"/>
     </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="9"/>
+    </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D427" s="9"/>
     </row>
@@ -2818,24 +2772,24 @@
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D430" s="9"/>
     </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" s="9"/>
-    </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D432" s="9"/>
     </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="9"/>
+    </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D434" s="9"/>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D435" s="9"/>
     </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" s="9"/>
-    </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D437" s="9"/>
     </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D438" s="9"/>
+    </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D439" s="9"/>
     </row>
@@ -2848,24 +2802,24 @@
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D442" s="9"/>
     </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" s="9"/>
-    </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" s="9"/>
     </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D445" s="9"/>
+    </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D446" s="9"/>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D447" s="9"/>
     </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" s="9"/>
-    </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="9"/>
     </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="9"/>
+    </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="9"/>
     </row>
@@ -2887,24 +2841,24 @@
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="9"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="9"/>
-    </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="9"/>
     </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460" s="9"/>
+    </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="9"/>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="9"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="9"/>
-    </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="9"/>
     </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="9"/>
+    </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="9"/>
     </row>
@@ -2929,32 +2883,26 @@
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="9"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" s="9"/>
-    </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
